--- a/biology/Botanique/Ustilaginales/Ustilaginales.xlsx
+++ b/biology/Botanique/Ustilaginales/Ustilaginales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ustilaginales ou, anciennement, les Ustilaginées[1] sont un ordre de champignons basidiomycètes de la classe des Ustilaginomycetes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ustilaginales ou, anciennement, les Ustilaginées sont un ordre de champignons basidiomycètes de la classe des Ustilaginomycetes.
 Cet ordre comprend de nombreuses espèces pathogènes de plantes, responsables de maladies cryptogamiques connues sous les noms de charbons ou caries.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (23 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (23 novembre 2014) :
 famille Anthracoideaceae
 famille Cintractiellaceae
 famille Clintamraceae
@@ -550,9 +564,11 @@
           <t>Liste des familles, genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (23 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (23 novembre 2014) :
 famille Anthracoideaceae
 genre Anthracoidea
 Anthracoidea arenaria
